--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>donor_id</t>
   </si>
@@ -387,130 +387,16 @@
     <t>imaging</t>
   </si>
   <si>
-    <t>mass_spectrometry</t>
-  </si>
-  <si>
-    <t>mass_spectrometry_imaging</t>
-  </si>
-  <si>
-    <t>sequence</t>
-  </si>
-  <si>
     <t>assay_type</t>
   </si>
   <si>
-    <t>scRNA-Seq (10xGenomics)</t>
-  </si>
-  <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>bulk RNA</t>
-  </si>
-  <si>
-    <t>bulkATACseq</t>
-  </si>
-  <si>
-    <t>Cell DIVE</t>
-  </si>
-  <si>
-    <t>CODEX</t>
-  </si>
-  <si>
-    <t>Imaging Mass Cytometry</t>
-  </si>
-  <si>
-    <t>LC-MS (metabolomics)</t>
-  </si>
-  <si>
-    <t>LC-MS/MS (label-free proteomics)</t>
-  </si>
-  <si>
-    <t>MxIF</t>
-  </si>
-  <si>
-    <t>MALDI-IMS</t>
-  </si>
-  <si>
-    <t>MS (shotgun lipidomics)</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>NanoPOTS</t>
-  </si>
-  <si>
-    <t>PAS microscopy</t>
-  </si>
-  <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>sciATACseq</t>
-  </si>
-  <si>
-    <t>sciRNAseq</t>
-  </si>
-  <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>snRNA</t>
-  </si>
-  <si>
-    <t>SPLiT-Seq</t>
-  </si>
-  <si>
-    <t>TMT (proteomics)</t>
-  </si>
-  <si>
-    <t>WGS</t>
-  </si>
-  <si>
-    <t>SNARE2-RNAseq</t>
-  </si>
-  <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>scRNAseq-10xGenomics</t>
-  </si>
-  <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>Slide-seq</t>
+    <t>Light Sheet</t>
   </si>
   <si>
     <t>analyte_class</t>
   </si>
   <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
     <t>protein</t>
-  </si>
-  <si>
-    <t>lipids</t>
-  </si>
-  <si>
-    <t>metabolites</t>
-  </si>
-  <si>
-    <t>polysaccharides</t>
-  </si>
-  <si>
-    <t>metabolites_and_lipids</t>
   </si>
   <si>
     <t>is_targeted</t>
@@ -945,64 +831,64 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging / mass_spectrometry / mass_spectrometry_imaging / sequence." sqref="I2:I1048576">
-      <formula1>'assay_category list'!$A$1:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from assay_type list." sqref="J2:J1048576">
-      <formula1>'assay_type list'!$A$1:$A$30</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must come from analyte_class list." sqref="K2:K1048576">
-      <formula1>'analyte_class list'!$A$1:$A$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="I2:I1048576">
+      <formula1>'assay_category list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Light Sheet." sqref="J2:J1048576">
+      <formula1>'assay_type list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+      <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
       <formula1>"TRUE,FALSE"</formula1>
@@ -1044,7 +930,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1055,21 +941,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1077,7 +948,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1085,152 +956,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +966,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,37 +974,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1296,12 +992,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1319,12 +1015,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1342,12 +1038,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -268,7 +268,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The increment distance between image slices, ie. the microscope stage is moved up or down in increments to capture images of several focal planes.</t>
+          <t>The distance at which two objects along the detection z-axis can be distinguished (resolved as 2 objects).</t>
         </r>
       </text>
     </comment>
@@ -281,7 +281,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of incremental distance between image slices.</t>
+          <t>The unit of z resolution.</t>
         </r>
       </text>
     </comment>

--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="resolution_x_unit list" sheetId="5" r:id="rId5"/>
-    <sheet name="resolution_y_unit list" sheetId="6" r:id="rId6"/>
-    <sheet name="resolution_z_unit list" sheetId="7" r:id="rId7"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="resolution_x_unit list" sheetId="6" r:id="rId6"/>
+    <sheet name="resolution_y_unit list" sheetId="7" r:id="rId7"/>
+    <sheet name="resolution_z_unit list" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -34,11 +35,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Current version of metadata schema. Template provides the correct value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +369,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -793,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -802,33 +822,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -840,85 +860,91 @@
         <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="I2:I1048576">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="J2:J1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Light Sheet." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Light Sheet." sqref="K2:K1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="L2:L1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="M2:M1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="O2:O1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="P2:P1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="P2:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="Q2:Q1048576">
       <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="R2:R1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="R2:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="S2:S1048576">
       <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="T2:T1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="T2:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="U2:U1048576">
       <formula1>'resolution_z_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="U2:U1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
@@ -938,7 +964,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,12 +1018,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1015,12 +1036,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1038,12 +1059,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -8,12 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Export as TSV" sheetId="1" r:id="rId1"/>
-    <sheet name="assay_category list" sheetId="2" r:id="rId2"/>
-    <sheet name="assay_type list" sheetId="3" r:id="rId3"/>
-    <sheet name="analyte_class list" sheetId="4" r:id="rId4"/>
-    <sheet name="resolution_x_unit list" sheetId="5" r:id="rId5"/>
-    <sheet name="resolution_y_unit list" sheetId="6" r:id="rId6"/>
-    <sheet name="resolution_z_unit list" sheetId="7" r:id="rId7"/>
+    <sheet name="version list" sheetId="2" r:id="rId2"/>
+    <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
+    <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
+    <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
+    <sheet name="resolution_x_unit list" sheetId="6" r:id="rId6"/>
+    <sheet name="resolution_y_unit list" sheetId="7" r:id="rId7"/>
+    <sheet name="resolution_z_unit list" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -34,11 +35,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Version of the schema to use when validating this metadata.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-text description of this assay.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>HuBMAP Display ID of the donor of the assayed tissue.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -233,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="W1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="Y1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -337,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +382,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
   <si>
     <t>donor_id</t>
   </si>
@@ -793,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AA1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -802,123 +838,132 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="I2:I1048576">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+      <formula1>'version list'!$A$1:$A$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="K2:K1048576">
       <formula1>'assay_category list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Light Sheet." sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: Light Sheet." sqref="L2:L1048576">
       <formula1>'assay_type list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="K2:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="L2:L1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
       <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="O2:O1048576">
-      <formula1>-1e+307</formula1>
-      <formula2>1e+307</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="P2:P1048576">
-      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="R2:R1048576">
-      <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
+      <formula1>'resolution_x_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="S2:S1048576">
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="T2:T1048576">
+      <formula1>'resolution_y_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="U2:U1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
       <formula1>'resolution_z_unit list'!$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="U2:U1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="V2:V1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="X2:X1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
@@ -938,7 +983,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +1001,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +1019,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,12 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1015,12 +1055,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1038,12 +1078,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -14,7 +14,8 @@
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
     <sheet name="resolution_x_unit list" sheetId="6" r:id="rId6"/>
     <sheet name="resolution_y_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="resolution_z_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="range_z_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="increment_z_unit list" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -295,7 +296,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The distance at which two objects along the detection z-axis can be distinguished (resolved as 2 objects).</t>
+          <t>The total range of the z axis.</t>
         </r>
       </text>
     </comment>
@@ -308,7 +309,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of z resolution.</t>
+          <t>The unit of range_z_value.</t>
         </r>
       </text>
     </comment>
@@ -321,11 +322,50 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>The number of optical sections in z axis range.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The distance between sequential optical sections.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The units of increment z value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Number of antibodies</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0">
+    <comment ref="AA1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -338,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -382,12 +422,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>description</t>
@@ -462,10 +502,19 @@
     <t>resolution_y_unit</t>
   </si>
   <si>
-    <t>resolution_z_value</t>
-  </si>
-  <si>
-    <t>resolution_z_unit</t>
+    <t>range_z_value</t>
+  </si>
+  <si>
+    <t>range_z_unit</t>
+  </si>
+  <si>
+    <t>step_z_value</t>
+  </si>
+  <si>
+    <t>increment_z_value</t>
+  </si>
+  <si>
+    <t>increment_z_unit</t>
   </si>
   <si>
     <t>number_of_antibodies</t>
@@ -829,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -838,7 +887,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,10 +969,19 @@
       <c r="AA1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 1." sqref="A2:A1048576">
+  <dataValidations count="16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: 2." sqref="A2:A1048576">
       <formula1>'version list'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: imaging." sqref="K2:K1048576">
@@ -957,13 +1015,24 @@
       <formula2>1e+307</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
-      <formula1>'resolution_z_unit list'!$A$1:$A$2</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
+      <formula1>'range_z_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="W2:W1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="X2:X1048576">
+      <formula1>-1e+307</formula1>
+      <formula2>1e+307</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="Y2:Y1048576">
+      <formula1>'increment_z_unit list'!$A$1:$A$2</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="Z2:Z1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="X2:X1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="AA2:AA1048576">
       <formula1>-2147483647</formula1>
       <formula2>2147483647</formula2>
     </dataValidation>
@@ -1112,4 +1181,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -308,7 +308,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The unit of z resolution.</t>
+          <t>The unit of distance at which two objects along the detection z-axis can be distinguished (resolved as 2 objects).</t>
         </r>
       </text>
     </comment>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>version</t>
   </si>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>resolution_z_unit</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
   <si>
     <t>number_of_antibodies</t>
@@ -906,19 +909,19 @@
         <v>27</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -956,8 +959,8 @@
       <formula1>-1e+307</formula1>
       <formula2>1e+307</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: nm / um." sqref="V2:V1048576">
-      <formula1>'resolution_z_unit list'!$A$1:$A$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: mm / um / nm." sqref="V2:V1048576">
+      <formula1>'resolution_z_unit list'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not an integer" error="The values in this column must be integers." sqref="W2:W1048576">
       <formula1>-2147483647</formula1>
@@ -1093,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1101,12 +1104,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -205,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay. The CODEX analyte is protein.</t>
+          <t>Specifies whether or not a specific molecule(s) is/are targeted for detection/measurement by the assay.</t>
         </r>
       </text>
     </comment>

--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -12,10 +12,11 @@
     <sheet name="assay_category list" sheetId="3" r:id="rId3"/>
     <sheet name="assay_type list" sheetId="4" r:id="rId4"/>
     <sheet name="analyte_class list" sheetId="5" r:id="rId5"/>
-    <sheet name="resolution_x_unit list" sheetId="6" r:id="rId6"/>
-    <sheet name="resolution_y_unit list" sheetId="7" r:id="rId7"/>
-    <sheet name="range_z_unit list" sheetId="8" r:id="rId8"/>
-    <sheet name="increment_z_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="is_targeted list" sheetId="6" r:id="rId6"/>
+    <sheet name="resolution_x_unit list" sheetId="7" r:id="rId7"/>
+    <sheet name="resolution_y_unit list" sheetId="8" r:id="rId8"/>
+    <sheet name="range_z_unit list" sheetId="9" r:id="rId9"/>
+    <sheet name="increment_z_unit list" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -422,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>version</t>
   </si>
@@ -476,6 +477,12 @@
   </si>
   <si>
     <t>is_targeted</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
   <si>
     <t>acquisition_instrument_vendor</t>
@@ -931,52 +938,52 @@
         <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -993,8 +1000,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: protein." sqref="M2:M1048576">
       <formula1>'analyte_class list'!$A$1:$A$1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a boolean" error="The values in this column must be &quot;TRUE&quot; or &quot;FALSE&quot;." sqref="N2:N1048576">
-      <formula1>"TRUE,FALSE"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value must come from list" error="Value must be one of: TRUE / FALSE." sqref="N2:N1048576">
+      <formula1>'is_targeted list'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a number" error="The values in this column must be numbers." sqref="Q2:Q1048576">
       <formula1>-1e+307</formula1>
@@ -1039,6 +1046,29 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1124,12 +1154,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1147,12 +1177,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1170,12 +1200,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1193,12 +1223,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/lightsheet/lightsheet-metadata.xlsx
+++ b/docs/lightsheet/lightsheet-metadata.xlsx
@@ -166,7 +166,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Each assay is placed into one of the following 3 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, and determination of nucleotide sequence.</t>
+          <t>Each assay is placed into one of the following 4 general categories: generation of images of microscopic entities, identification &amp; quantitation of molecules by mass spectrometry, imaging mass spectrometry, and determination of nucleotide sequence.</t>
         </r>
       </text>
     </comment>
